--- a/data/trans_bre/P37-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P37-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-2.020485602426328</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.112276080613106</v>
+        <v>-1.112276080613117</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.08182804540310369</v>
@@ -649,7 +649,7 @@
         <v>-0.1325134355618911</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.02956727372586784</v>
+        <v>-0.02956727372586813</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.814278849459075</v>
+        <v>-6.321047074328328</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.875302254198726</v>
+        <v>-8.915617187183965</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.260720436816816</v>
+        <v>-6.730286485471271</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.028363507724604</v>
+        <v>-6.974896666557291</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3897606950556853</v>
+        <v>-0.4002062595831792</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4943460311216852</v>
+        <v>-0.5132192141830592</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4100051380702343</v>
+        <v>-0.3862315572335464</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1741041839461159</v>
+        <v>-0.1703735810760991</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.897831458149204</v>
+        <v>3.798295149512953</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.884929458383954</v>
+        <v>1.6118235433667</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.156888407208447</v>
+        <v>3.582463593080631</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.115214354426286</v>
+        <v>4.54992778108203</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3637976117422595</v>
+        <v>0.3335464164009729</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1441568258931339</v>
+        <v>0.1309166683462184</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2486099567402336</v>
+        <v>0.292975162473439</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1179440190394188</v>
+        <v>0.1320562926585191</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-4.435389311170742</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-6.995811415880116</v>
+        <v>-6.995811415880127</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.5602302070141175</v>
@@ -749,7 +749,7 @@
         <v>-0.3316642749319768</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1875280008023344</v>
+        <v>-0.1875280008023347</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-14.08301710083467</v>
+        <v>-13.8824668981912</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-14.86802687916334</v>
+        <v>-15.19106248481976</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-8.731467358016006</v>
+        <v>-9.195613970410696</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-13.41423236915651</v>
+        <v>-13.48287296028269</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7338861939794494</v>
+        <v>-0.7291935558643433</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6830970196021204</v>
+        <v>-0.67331438217627</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5594821274483374</v>
+        <v>-0.5714940444223351</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3280185158959962</v>
+        <v>-0.3255304981257265</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-4.346176197526646</v>
+        <v>-4.024068359324882</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-3.976673469390384</v>
+        <v>-3.573637971305165</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9360609425012242</v>
+        <v>0.1209397621854028</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.691731791475487</v>
+        <v>-1.562594900650095</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.3061191466393193</v>
+        <v>-0.282957168228272</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2298080952389399</v>
+        <v>-0.2050409970907511</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1229116388935755</v>
+        <v>0.0140271332167916</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.04804081483183715</v>
+        <v>-0.04561438897939349</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.01627581544574022</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2298721396700786</v>
+        <v>0.2298721396700787</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.749125376292628</v>
+        <v>-5.194390962697094</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.6231593293597</v>
+        <v>-10.720800560223</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.298229285982824</v>
+        <v>-6.790154333071191</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.030076770279542</v>
+        <v>-0.1103874592309968</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3416283301242793</v>
+        <v>-0.3776145865530125</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5432806019886486</v>
+        <v>-0.5397217158624115</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3464108794849498</v>
+        <v>-0.3690244930366434</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.0009359327715534371</v>
+        <v>-0.003882485203171404</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.765696446998443</v>
+        <v>6.695720885026392</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.01659346735713011</v>
+        <v>-0.02227232389374616</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.783577519704368</v>
+        <v>7.69801929038744</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.66165503828825</v>
+        <v>14.43658765864463</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6296662053947999</v>
+        <v>0.6445165931583019</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.002392049523163575</v>
+        <v>0.005431082196810964</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5807544147391486</v>
+        <v>0.5153073090303186</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5085151498564934</v>
+        <v>0.4979597082866659</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.834266506240148</v>
+        <v>-6.700654185576807</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-11.13006311436044</v>
+        <v>-11.0818717228872</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-7.971509957911703</v>
+        <v>-8.003699045068702</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.79299263581966</v>
+        <v>-6.936900258214076</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3908086530994492</v>
+        <v>-0.36941528885622</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5112341245647606</v>
+        <v>-0.5152757051265281</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4283799764391368</v>
+        <v>-0.4386198473371242</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1892806052480985</v>
+        <v>-0.1940879750657441</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.261422936254581</v>
+        <v>-0.3029581265029796</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-4.132128679465434</v>
+        <v>-4.309592430662292</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-1.697344361589587</v>
+        <v>-1.29309281602684</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5095600280304188</v>
+        <v>0.9033633181431279</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.02186779550335362</v>
+        <v>-0.01507605372920927</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2214876766215252</v>
+        <v>-0.2348527600469932</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1020453377904096</v>
+        <v>-0.08685178158629912</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.0181113014348406</v>
+        <v>0.02844974790985137</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-1.592785250529527</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10.62979720740653</v>
+        <v>10.62979720740654</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003525852702465475</v>
@@ -1049,7 +1049,7 @@
         <v>-0.0865497673682953</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.429879961800541</v>
+        <v>0.4298799618005417</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.249279874975167</v>
+        <v>-4.951980120547362</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.713561419162544</v>
+        <v>-2.838603631819935</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.36166919594416</v>
+        <v>-5.854875134253532</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.119594623536688</v>
+        <v>6.185759631328682</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3026626235088944</v>
+        <v>-0.2852912921359949</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.17418958411577</v>
+        <v>-0.1413914694704607</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3039466944858989</v>
+        <v>-0.2867213972830501</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2224359195313755</v>
+        <v>0.2178879979864688</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.563859386040783</v>
+        <v>4.760880797919302</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.462988954272374</v>
+        <v>5.83696900460458</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.378686087627986</v>
+        <v>2.663197126625806</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.99653302570924</v>
+        <v>15.16037004793747</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4066390792223466</v>
+        <v>0.4352244409106074</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3406968853526713</v>
+        <v>0.3739292084227154</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1503882529650096</v>
+        <v>0.1612445737892479</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6864624046596731</v>
+        <v>0.6912082882475515</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>14.71034889835644</v>
+        <v>14.79654335530214</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>14.3264855320257</v>
+        <v>14.16617156978336</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15.47360283934045</v>
+        <v>15.2864384147293</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34.75809974497618</v>
+        <v>34.41743911194651</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>2.193415728157603</v>
+        <v>2.348740325327337</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.160100503826408</v>
+        <v>1.085998577777564</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.715501022667086</v>
+        <v>1.718367583541918</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>3.832611116822306</v>
+        <v>3.617589429975608</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>21.39983857989273</v>
+        <v>21.06960227593823</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.26344651988125</v>
+        <v>23.22105440941806</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23.48356457039857</v>
+        <v>23.28610508786261</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>44.03399573354957</v>
+        <v>44.05365690581846</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>9.569347514529507</v>
+        <v>9.597329523657514</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.258346296091535</v>
+        <v>3.961687990337509</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>6.649862246003297</v>
+        <v>6.355271389220446</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>16.13824659805224</v>
+        <v>16.23266299503686</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>1.486889869468752</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5.106399205082301</v>
+        <v>5.106399205082307</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1402974166769609</v>
@@ -1249,7 +1249,7 @@
         <v>0.09447215809657002</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1646844588799286</v>
+        <v>0.1646844588799288</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1915886567452089</v>
+        <v>0.1721503934868981</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.307140677394014</v>
+        <v>-1.3292351681366</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.4701242112555463</v>
+        <v>-0.3186641371806682</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.070614823498778</v>
+        <v>2.952902382305426</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.01686615878874153</v>
+        <v>0.01076342784878452</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.06971131579326253</v>
+        <v>-0.07484354188323333</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.02768104955719937</v>
+        <v>-0.01842104813773607</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.09359634738099815</v>
+        <v>0.0904592365880285</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.476470888602194</v>
+        <v>3.712565964650387</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.541487094617112</v>
+        <v>2.40406851000292</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.035836161843669</v>
+        <v>3.464300054683364</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.128690683461304</v>
+        <v>7.35879865819</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2691881199239807</v>
+        <v>0.279203155739234</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1530726575063987</v>
+        <v>0.1420972343051428</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2028266491452599</v>
+        <v>0.2358087680219883</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2370435527814455</v>
+        <v>0.2471187109614156</v>
       </c>
     </row>
     <row r="25">
